--- a/FILES/input.xlsx
+++ b/FILES/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MAIN\APP\FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74ADC1-5A54-44F2-8A1A-3781E739800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BCD53-4CC1-4DE8-86AE-D984598EB3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,15 +371,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
